--- a/public/baseDeDonnee/Pokebob.xlsx
+++ b/public/baseDeDonnee/Pokebob.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\project\pokebob\pokebob\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\project\pokebob\pokebob\public\baseDeDonnee\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="1ère génération" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1ère génération'!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Nom</t>
   </si>
@@ -59,9 +62,6 @@
     <t>Commun</t>
   </si>
   <si>
-    <t>Commun : 21</t>
-  </si>
-  <si>
     <t>Keylian</t>
   </si>
   <si>
@@ -74,58 +74,31 @@
     <t>Bob dirigeant de la rgpd</t>
   </si>
   <si>
-    <t>Marco Le fumeur</t>
-  </si>
-  <si>
-    <t>Marvin Le codeur</t>
-  </si>
-  <si>
-    <t>Sael Le fermier</t>
-  </si>
-  <si>
-    <t>Gakriel le mexicain</t>
-  </si>
-  <si>
-    <t>Valentin le kiwi</t>
-  </si>
-  <si>
-    <t>Yenis l'handicapé</t>
-  </si>
-  <si>
-    <t>Trévor gpt</t>
-  </si>
-  <si>
-    <t>Réda porte parole</t>
-  </si>
-  <si>
-    <t>Mathias Ronflex</t>
-  </si>
-  <si>
-    <t>Théo le dépressif</t>
-  </si>
-  <si>
-    <t>Guenaël &amp; Mathieu les frères siamois</t>
-  </si>
-  <si>
-    <t>Quentin BobCoin</t>
-  </si>
-  <si>
-    <t>Kamdine Kamis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajdi arme </t>
-  </si>
-  <si>
-    <t>Ryan Bodybuilder</t>
-  </si>
-  <si>
-    <t>Léo Pilote</t>
-  </si>
-  <si>
-    <t>Célina misandre</t>
-  </si>
-  <si>
-    <t>Anis le mime</t>
+    <t>Bobo Parisiens</t>
+  </si>
+  <si>
+    <t>Bob le bricoleur</t>
+  </si>
+  <si>
+    <t>CookieBob</t>
+  </si>
+  <si>
+    <t>Bob l'eponge</t>
+  </si>
+  <si>
+    <t>Narbob</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Bowbzer</t>
+  </si>
+  <si>
+    <t>BobYlone</t>
+  </si>
+  <si>
+    <t>attaque</t>
   </si>
 </sst>
 </file>
@@ -450,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +434,7 @@
     <col min="1" max="1" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,211 +447,222 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>